--- a/workspace/xlsdocs/Complete formatted data ch3/addEbook.xlsx
+++ b/workspace/xlsdocs/Complete formatted data ch3/addEbook.xlsx
@@ -1,22 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\editor\Downloads\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23250" windowHeight="12330"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="12336"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -368,8 +363,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -746,32 +741,32 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
       <selection activeCell="J44" sqref="J44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="9.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.85546875" customWidth="1"/>
-    <col min="4" max="4" width="34.5703125" customWidth="1"/>
+    <col min="1" max="1" width="9.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.88671875" customWidth="1"/>
+    <col min="4" max="4" width="34.5546875" customWidth="1"/>
     <col min="5" max="5" width="76" customWidth="1"/>
-    <col min="6" max="6" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5546875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="19.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -791,7 +786,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" ht="16.8" customHeight="1">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -811,7 +806,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" ht="15.6" customHeight="1">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -831,7 +826,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="12.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" ht="12.6" customHeight="1">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -851,7 +846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="14.4" customHeight="1">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -871,7 +866,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -891,7 +886,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -911,7 +906,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -931,7 +926,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6">
       <c r="A9" t="s">
         <v>5</v>
       </c>
@@ -951,7 +946,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6">
       <c r="A10" t="s">
         <v>5</v>
       </c>
@@ -971,7 +966,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -991,7 +986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6">
       <c r="A12" t="s">
         <v>5</v>
       </c>
@@ -1011,7 +1006,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6">
       <c r="A13" t="s">
         <v>5</v>
       </c>
@@ -1031,7 +1026,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6">
       <c r="A14" t="s">
         <v>5</v>
       </c>
@@ -1051,7 +1046,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="A15" t="s">
         <v>5</v>
       </c>
@@ -1071,7 +1066,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6">
       <c r="A16" t="s">
         <v>5</v>
       </c>
@@ -1091,7 +1086,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6">
       <c r="A17" t="s">
         <v>5</v>
       </c>
@@ -1111,7 +1106,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6">
       <c r="A18" t="s">
         <v>5</v>
       </c>
@@ -1131,7 +1126,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" t="s">
         <v>5</v>
       </c>
@@ -1151,7 +1146,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6">
       <c r="A20" t="s">
         <v>5</v>
       </c>
@@ -1171,7 +1166,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" t="s">
         <v>5</v>
       </c>
@@ -1191,7 +1186,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1211,7 +1206,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6">
       <c r="A23" t="s">
         <v>5</v>
       </c>
@@ -1231,7 +1226,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" t="s">
         <v>5</v>
       </c>
@@ -1251,7 +1246,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" t="s">
         <v>5</v>
       </c>
@@ -1271,7 +1266,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" t="s">
         <v>5</v>
       </c>
@@ -1291,7 +1286,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" t="s">
         <v>5</v>
       </c>
@@ -1311,7 +1306,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" t="s">
         <v>5</v>
       </c>
@@ -1331,7 +1326,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" t="s">
         <v>5</v>
       </c>
@@ -1351,7 +1346,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" t="s">
         <v>5</v>
       </c>
@@ -1371,7 +1366,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" t="s">
         <v>5</v>
       </c>
@@ -1391,7 +1386,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" t="s">
         <v>5</v>
       </c>
@@ -1411,7 +1406,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6">
       <c r="A33" t="s">
         <v>5</v>
       </c>
@@ -1431,7 +1426,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6">
       <c r="A34" t="s">
         <v>5</v>
       </c>
@@ -1451,7 +1446,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6">
       <c r="A35" t="s">
         <v>5</v>
       </c>
@@ -1471,7 +1466,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6">
       <c r="A36" t="s">
         <v>5</v>
       </c>
@@ -1491,7 +1486,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6">
       <c r="A37" t="s">
         <v>5</v>
       </c>
@@ -1511,7 +1506,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6">
       <c r="A38" t="s">
         <v>5</v>
       </c>
@@ -1531,7 +1526,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6">
       <c r="A39" t="s">
         <v>5</v>
       </c>
@@ -1551,7 +1546,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6">
       <c r="A40" t="s">
         <v>5</v>
       </c>
@@ -1571,7 +1566,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6">
       <c r="A41" t="s">
         <v>5</v>
       </c>
@@ -1591,7 +1586,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6">
       <c r="A42" t="s">
         <v>5</v>
       </c>
@@ -1611,7 +1606,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6">
       <c r="A43" t="s">
         <v>5</v>
       </c>
@@ -1631,7 +1626,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6">
       <c r="A44" t="s">
         <v>5</v>
       </c>
@@ -1651,7 +1646,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6">
       <c r="A45" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +1666,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6">
       <c r="A46" t="s">
         <v>5</v>
       </c>
@@ -1691,7 +1686,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6">
       <c r="A47" t="s">
         <v>5</v>
       </c>
@@ -1711,7 +1706,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6">
       <c r="A48" t="s">
         <v>5</v>
       </c>
@@ -1731,7 +1726,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6">
       <c r="A49" t="s">
         <v>5</v>
       </c>
